--- a/pred_ohlcv/54_21/2019-10-14 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 HYC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>6506311.739221615</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6022505.485728109</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5533922.630628109</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5534052.630628109</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>955041.6458376975</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4688820.332669063</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5402141.125677178</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>4303640.129177177</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5707407.239677178</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>6168390.046777178</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5648098.963477178</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>5648098.963477178</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>4862347.346077178</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5168678.330277178</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3078622.321377178</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>3602705.689077178</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>3602705.689077178</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>4413468.735862543</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3842677.690762543</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1331135.202562543</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1125364.206262543</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2109603.730615616</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1653711.712615616</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1183719.150815616</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>950074.3944156163</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>204090.6458156162</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>204090.6458156162</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>211700.9314156162</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1585442.587615616</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>980442.8471156162</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-22064392.11303062</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-21320149.35133062</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-22293968.41443062</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-22293968.41443062</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-21503018.27473062</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-22494614.45653062</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-20092385.83733062</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-19754458.76703062</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-18426736.70443062</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-20966690.05933618</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-20824318.50226628</v>
       </c>
       <c r="H949">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-20693069.05046628</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-20104376.9214757</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-20110273.0419757</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-20074652.9701757</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-20074652.9701757</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-20083913.9177757</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-14 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 HYC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>6506311.739221615</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6022505.485728109</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5533922.630628109</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5534052.630628109</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>955041.6458376975</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4688820.332669063</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5402141.125677178</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>4303640.129177177</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5707407.239677178</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>6168390.046777178</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5648098.963477178</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>5648098.963477178</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>4862347.346077178</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5168678.330277178</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3078622.321377178</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>3602705.689077178</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>3602705.689077178</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>4413468.735862543</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3842677.690762543</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2128364.580262543</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1331135.202562543</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1105155.794562543</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>596196.3949625433</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1125364.206262543</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>944108.1386625434</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>817287.6959608893</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>901750.0266156164</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2109603.730615616</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2109603.730615616</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1653711.712615616</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1183719.150815616</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>950074.3944156163</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>204090.6458156162</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>204090.6458156162</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>211700.9314156162</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1580494.511115616</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1369734.823715616</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1585442.587615616</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>980442.8471156162</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1189515.347015616</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>717518.911760278</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-22064392.11303062</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-21320149.35133062</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-22293968.41443062</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-22293968.41443062</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-21503018.27473062</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-22494614.45653062</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-22195917.82923062</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-20431958.66593062</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-20092385.83733062</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-19754458.76703062</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-19625739.76569454</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-18426736.70443062</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-20966690.05933618</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-20824318.50226628</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-20693069.05046628</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-20104376.9214757</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-20110273.0419757</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-20074652.9701757</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-20074652.9701757</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-20083913.9177757</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
